--- a/XuMiuDuTing/RabiConfig/xlsx/Stage.xlsx
+++ b/XuMiuDuTing/RabiConfig/xlsx/Stage.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\XuMiuDuTing\XuMiuDuTing\RabiConfig\xlsx\Stage\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\XuMiuDuTing\XuMiuDuTing\RabiConfig\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B74C20-C604-4ED7-854B-D390572A175B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CFC61AB-4D14-415B-A833-2898CB57FF8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="32">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -106,6 +106,47 @@
   <si>
     <t>Stage</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌人列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;string&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemyTeam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unlockStageList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关后解锁的关卡列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-3</t>
+  </si>
+  <si>
+    <t>0-4</t>
+  </si>
+  <si>
+    <t>0-5</t>
+  </si>
+  <si>
+    <t>1-2</t>
+  </si>
+  <si>
+    <t>1-3</t>
+  </si>
+  <si>
+    <t>1-4</t>
+  </si>
+  <si>
+    <t>1-5</t>
   </si>
 </sst>
 </file>
@@ -434,7 +475,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -453,15 +494,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31CFE092-528E-496B-884A-DE047B218122}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -471,8 +512,14 @@
       <c r="C1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -482,8 +529,14 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -493,8 +546,14 @@
       <c r="C3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -504,8 +563,11 @@
       <c r="C4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -515,8 +577,11 @@
       <c r="C5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -526,8 +591,11 @@
       <c r="C6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -537,8 +605,11 @@
       <c r="C7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -548,8 +619,11 @@
       <c r="C8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E8" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -559,8 +633,11 @@
       <c r="C9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E9" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -570,8 +647,11 @@
       <c r="C10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E10" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
@@ -581,8 +661,11 @@
       <c r="C11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E11" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
@@ -592,8 +675,11 @@
       <c r="C12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E12" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>

--- a/XuMiuDuTing/RabiConfig/xlsx/Stage.xlsx
+++ b/XuMiuDuTing/RabiConfig/xlsx/Stage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\XuMiuDuTing\XuMiuDuTing\RabiConfig\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CFC61AB-4D14-415B-A833-2898CB57FF8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B498D3-CE91-4BC7-B2C8-F0C23AD51151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="33">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -147,6 +147,10 @@
   </si>
   <si>
     <t>1-5</t>
+  </si>
+  <si>
+    <t>EnemyA,EnemyA,,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -497,7 +501,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -563,6 +567,9 @@
       <c r="C4" t="s">
         <v>7</v>
       </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
       <c r="E4" t="s">
         <v>8</v>
       </c>
@@ -577,6 +584,9 @@
       <c r="C5" t="s">
         <v>8</v>
       </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
       <c r="E5" t="s">
         <v>25</v>
       </c>
@@ -591,6 +601,9 @@
       <c r="C6" t="s">
         <v>9</v>
       </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
       <c r="E6" t="s">
         <v>26</v>
       </c>
@@ -605,6 +618,9 @@
       <c r="C7" t="s">
         <v>10</v>
       </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
       <c r="E7" t="s">
         <v>27</v>
       </c>
@@ -619,6 +635,9 @@
       <c r="C8" t="s">
         <v>11</v>
       </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
       <c r="E8" s="1" t="s">
         <v>14</v>
       </c>
@@ -633,6 +652,9 @@
       <c r="C9" t="s">
         <v>13</v>
       </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
       <c r="E9" s="1" t="s">
         <v>28</v>
       </c>
@@ -647,6 +669,9 @@
       <c r="C10" t="s">
         <v>8</v>
       </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
       <c r="E10" s="1" t="s">
         <v>29</v>
       </c>
@@ -661,6 +686,9 @@
       <c r="C11" t="s">
         <v>9</v>
       </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
       <c r="E11" s="1" t="s">
         <v>30</v>
       </c>
@@ -675,6 +703,9 @@
       <c r="C12" t="s">
         <v>10</v>
       </c>
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
       <c r="E12" s="1" t="s">
         <v>31</v>
       </c>
@@ -688,6 +719,9 @@
       </c>
       <c r="C13" t="s">
         <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/XuMiuDuTing/RabiConfig/xlsx/Stage.xlsx
+++ b/XuMiuDuTing/RabiConfig/xlsx/Stage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\XuMiuDuTing\XuMiuDuTing\RabiConfig\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B498D3-CE91-4BC7-B2C8-F0C23AD51151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8BE746F-D237-47A5-B5F9-303338CC40F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="44">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -150,6 +150,49 @@
   </si>
   <si>
     <t>EnemyA,EnemyA,,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conversationAName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conversationBName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isBattle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对话A名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否有战斗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对话B名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlotAName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlotBName</t>
+  </si>
+  <si>
+    <t>fixCharacterTeam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定角色队伍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -498,15 +541,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31CFE092-528E-496B-884A-DE047B218122}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="7" width="10.75" customWidth="1"/>
+    <col min="8" max="8" width="16.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -517,13 +564,25 @@
         <v>5</v>
       </c>
       <c r="D1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -534,13 +593,25 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" t="s">
+      <c r="I2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -551,13 +622,25 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
         <v>21</v>
       </c>
-      <c r="E3" t="s">
+      <c r="H3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -568,13 +651,19 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -585,13 +674,19 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -601,14 +696,17 @@
       <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -619,13 +717,22 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -635,14 +742,20 @@
       <c r="C8" t="s">
         <v>11</v>
       </c>
-      <c r="D8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -652,14 +765,17 @@
       <c r="C9" t="s">
         <v>13</v>
       </c>
-      <c r="D9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -669,14 +785,17 @@
       <c r="C10" t="s">
         <v>8</v>
       </c>
-      <c r="D10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
@@ -686,14 +805,17 @@
       <c r="C11" t="s">
         <v>9</v>
       </c>
-      <c r="D11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
@@ -703,14 +825,17 @@
       <c r="C12" t="s">
         <v>10</v>
       </c>
-      <c r="D12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
@@ -720,8 +845,14 @@
       <c r="C13" t="s">
         <v>11</v>
       </c>
-      <c r="D13" t="s">
-        <v>32</v>
+      <c r="E13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/XuMiuDuTing/RabiConfig/xlsx/Stage.xlsx
+++ b/XuMiuDuTing/RabiConfig/xlsx/Stage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\XuMiuDuTing\XuMiuDuTing\RabiConfig\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8BE746F-D237-47A5-B5F9-303338CC40F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{148BA1C2-FF53-45AD-9BF6-28D32CFB95B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -544,7 +544,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -765,11 +765,11 @@
       <c r="C9" t="s">
         <v>13</v>
       </c>
+      <c r="D9" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="E9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>28</v>

--- a/XuMiuDuTing/RabiConfig/xlsx/Stage.xlsx
+++ b/XuMiuDuTing/RabiConfig/xlsx/Stage.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\XuMiuDuTing\XuMiuDuTing\RabiConfig\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{148BA1C2-FF53-45AD-9BF6-28D32CFB95B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F1117F-95C0-4055-AEED-CE3E0DFD8382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="45">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -193,6 +193,10 @@
   </si>
   <si>
     <t>固定角色队伍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnemyA,EnemyA,EnemyA,EnemyA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -544,7 +548,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -700,7 +704,7 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="I6" t="s">
         <v>26</v>

--- a/XuMiuDuTing/RabiConfig/xlsx/Stage.xlsx
+++ b/XuMiuDuTing/RabiConfig/xlsx/Stage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\XuMiuDuTing\XuMiuDuTing\RabiConfig\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F1117F-95C0-4055-AEED-CE3E0DFD8382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3103DAB7-D3F5-4CDA-8879-F084BB2DCE62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="54">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,34 +56,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-1 龋齿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>听，一颗坏牙悄然落地的声音，那是老人步入垂暮的路标，亦是一场死亡的开端。 本关卡包含有战斗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -128,15 +100,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0-3</t>
-  </si>
-  <si>
-    <t>0-4</t>
-  </si>
-  <si>
-    <t>0-5</t>
-  </si>
-  <si>
     <t>1-2</t>
   </si>
   <si>
@@ -149,10 +112,6 @@
     <t>1-5</t>
   </si>
   <si>
-    <t>EnemyA,EnemyA,,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>conversationAName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -181,13 +140,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PlotAName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PlotBName</t>
-  </si>
-  <si>
     <t>fixCharacterTeam</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -196,7 +148,94 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EnemyA,EnemyA,EnemyA,EnemyA</t>
+    <t>0-0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龋齿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>听，那是龋齿落地的声音\n走向衰败、无可挽回，一场死亡的新生。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道德困境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所谓姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>情感熵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人去楼空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑路撒冷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>童年的终结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷欧纳鲁德有一点想不通，为什么被抢外卖的总是自己？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们的维多利亚，确实在严刑逼供上还是个可爱的新手。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有什么能真正熄灭仇恨的火焰，他只是忘却了仇恨的理由。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人并不能在幸福一去不返的瞬间立刻意识到这个事实/n正如他推开店面的大门的那一刻才注意到这点。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>假如你想在这座奇妙的交界都市活得更久一点，请远离夜路、小巷、和怪人云集的地铁。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>——也是他旅途的开始……未来是属于你的，维克多。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-6A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-6B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>,EnemyA,,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龋齿,龋齿,龋齿,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>都市法则</t>
+  </si>
+  <si>
+    <t>*新手教程\n“嘿亲爱的,在旅途开始之前，你应该先学习一下都市的生存法则。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -530,11 +569,11 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -545,19 +584,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31CFE092-528E-496B-884A-DE047B218122}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="7" width="10.75" customWidth="1"/>
-    <col min="8" max="8" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" customWidth="1"/>
+    <col min="6" max="7" width="10.77734375" customWidth="1"/>
+    <col min="8" max="8" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -568,25 +608,25 @@
         <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E1" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="G1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="I1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -597,25 +637,25 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -626,237 +666,185 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
         <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>39</v>
       </c>
       <c r="F3" t="s">
         <v>1</v>
       </c>
       <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" t="b">
+      <c r="I10" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" t="b">
         <v>1</v>
       </c>
-      <c r="H5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" t="b">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" t="s">
-        <v>32</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="b">
-        <v>1</v>
+      <c r="E11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="H11" t="s">
-        <v>32</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" t="s">
-        <v>32</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" t="s">
-        <v>32</v>
-      </c>
-      <c r="I13" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/XuMiuDuTing/RabiConfig/xlsx/Stage.xlsx
+++ b/XuMiuDuTing/RabiConfig/xlsx/Stage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\XuMiuDuTing\XuMiuDuTing\RabiConfig\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3103DAB7-D3F5-4CDA-8879-F084BB2DCE62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E55037-01C6-4B57-B375-74BE0238A48C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list" sheetId="1" r:id="rId1"/>
@@ -204,10 +204,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>人并不能在幸福一去不返的瞬间立刻意识到这个事实/n正如他推开店面的大门的那一刻才注意到这点。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>假如你想在这座奇妙的交界都市活得更久一点，请远离夜路、小巷、和怪人云集的地铁。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -236,6 +232,10 @@
   </si>
   <si>
     <t>*新手教程\n“嘿亲爱的,在旅途开始之前，你应该先学习一下都市的生存法则。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人并不能在幸福一去不返的瞬间立刻意识到这个事实\n正如他推开店面的大门的那一刻才注意到这点。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -569,9 +569,9 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -587,17 +587,17 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="10.77734375" customWidth="1"/>
-    <col min="6" max="7" width="10.77734375" customWidth="1"/>
-    <col min="8" max="8" width="16.44140625" customWidth="1"/>
+    <col min="4" max="4" width="10.75" customWidth="1"/>
+    <col min="6" max="7" width="10.75" customWidth="1"/>
+    <col min="8" max="8" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -626,7 +626,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -655,7 +655,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -684,27 +684,27 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>31</v>
       </c>
       <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" t="s">
         <v>52</v>
-      </c>
-      <c r="C4" t="s">
-        <v>53</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>40</v>
       </c>
@@ -724,7 +724,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -744,7 +744,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -764,7 +764,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -784,7 +784,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -792,7 +792,7 @@
         <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -812,7 +812,7 @@
         <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>41</v>
       </c>
@@ -832,19 +832,19 @@
         <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
       </c>
       <c r="E11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="H11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/XuMiuDuTing/RabiConfig/xlsx/Stage.xlsx
+++ b/XuMiuDuTing/RabiConfig/xlsx/Stage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\XuMiuDuTing\XuMiuDuTing\RabiConfig\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E55037-01C6-4B57-B375-74BE0238A48C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA4CA61-5AE8-404F-A384-BE363D6B7A08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="62">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -236,6 +236,37 @@
   </si>
   <si>
     <t>人并不能在幸福一去不返的瞬间立刻意识到这个事实\n正如他推开店面的大门的那一刻才注意到这点。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>battleBgm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗bgm(数量大于2按abb模式)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通战斗a,普通战斗b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_It means_(Instrumental)</t>
+  </si>
+  <si>
+    <t>battleScene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗场景路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Battle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BattleTutorial</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -584,10 +615,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31CFE092-528E-496B-884A-DE047B218122}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -595,9 +626,11 @@
     <col min="4" max="4" width="10.75" customWidth="1"/>
     <col min="6" max="7" width="10.75" customWidth="1"/>
     <col min="8" max="8" width="16.5" customWidth="1"/>
+    <col min="9" max="9" width="16.375" customWidth="1"/>
+    <col min="10" max="10" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -623,10 +656,16 @@
         <v>15</v>
       </c>
       <c r="I1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -652,10 +691,16 @@
         <v>13</v>
       </c>
       <c r="I2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -681,10 +726,16 @@
         <v>14</v>
       </c>
       <c r="I3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -701,10 +752,16 @@
         <v>49</v>
       </c>
       <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>40</v>
       </c>
@@ -720,11 +777,11 @@
       <c r="E5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -740,11 +797,11 @@
       <c r="E6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -760,11 +817,11 @@
       <c r="E7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -780,11 +837,11 @@
       <c r="E8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -800,11 +857,11 @@
       <c r="E9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -820,11 +877,11 @@
       <c r="E10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>41</v>
       </c>
@@ -845,6 +902,12 @@
       </c>
       <c r="H11" t="s">
         <v>50</v>
+      </c>
+      <c r="I11" t="s">
+        <v>60</v>
+      </c>
+      <c r="J11" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/XuMiuDuTing/RabiConfig/xlsx/Stage.xlsx
+++ b/XuMiuDuTing/RabiConfig/xlsx/Stage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\XuMiuDuTing\XuMiuDuTing\RabiConfig\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA4CA61-5AE8-404F-A384-BE363D6B7A08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9FB6244-675E-4300-B27F-EE576C93C905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="61">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -209,10 +209,6 @@
   </si>
   <si>
     <t>——也是他旅途的开始……未来是属于你的，维克多。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-6A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -618,7 +614,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -656,10 +652,10 @@
         <v>15</v>
       </c>
       <c r="I1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K1" t="s">
         <v>16</v>
@@ -691,10 +687,10 @@
         <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
@@ -740,22 +736,22 @@
         <v>31</v>
       </c>
       <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" t="s">
         <v>51</v>
-      </c>
-      <c r="C4" t="s">
-        <v>52</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K4" t="s">
         <v>40</v>
@@ -849,7 +845,7 @@
         <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
@@ -898,16 +894,16 @@
         <v>47</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/XuMiuDuTing/RabiConfig/xlsx/Stage.xlsx
+++ b/XuMiuDuTing/RabiConfig/xlsx/Stage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\XuMiuDuTing\XuMiuDuTing\RabiConfig\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9FB6244-675E-4300-B27F-EE576C93C905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60AAAB9A-57B7-44D8-B6C5-ED80B21474EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="62">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -212,6 +212,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1-6A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1-6B</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -220,10 +224,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>龋齿,龋齿,龋齿,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>都市法则</t>
   </si>
   <si>
@@ -263,6 +263,10 @@
   </si>
   <si>
     <t>BattleTutorial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龋齿_Idle,龋齿,龋齿,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -614,7 +618,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -745,7 +749,7 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I4" t="s">
         <v>60</v>
@@ -894,10 +898,10 @@
         <v>47</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H11" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="I11" t="s">
         <v>59</v>
